--- a/Properties/Bella_Mirage/BellaMirage_WasteAnalysis_Validated.xlsx
+++ b/Properties/Bella_Mirage/BellaMirage_WasteAnalysis_Validated.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QUALITY_CHECK" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCUMENTATION_NOTES" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONTRACT_TERMS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGULATORY_COMPLIANCE" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +25,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -74,6 +75,18 @@
       <b val="1"/>
       <color rgb="00DC2626"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="003B82F6"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="7">
@@ -126,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -156,6 +169,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1875,4 +1892,268 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>REGULATORY COMPLIANCE ANALYSIS - Bella Mirage</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Research Date:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Confidence Level:</t>
+        </is>
+      </c>
+      <c r="B4" s="21" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="inlineStr">
+        <is>
+          <t>PROPERTY INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Location:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phoenix, AZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>State:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Units:</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="inlineStr">
+        <is>
+          <t>RECYCLING REQUIREMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>VOLUNTARY ONLY (State law prohibits mandates)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="22" t="inlineStr">
+        <is>
+          <t>PHOENIX, AZ - UNIQUE REGULATORY SITUATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="inlineStr">
+        <is>
+          <t>[!] NO RECYCLING MANDATES PERMITTED</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Phoenix City Code Section 27-21(c): Prohibits city from offering recycling at 30+ unit complexes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Arizona state law (2015): Prevents cities from requiring multifamily recycling</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Required Waste Service:</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>- Minimum 1/4 cubic yard per unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>- Twice weekly minimum collection</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>- Private hauler required (city service not available)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>Recycling Status:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>- VOLUNTARY ONLY (no compliance required)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>- Can offer as amenity via private contract if desired</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="inlineStr">
+        <is>
+          <t>RECOMMENDED NEXT STEPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1. Verify current waste service meets minimum requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2. Confirm waste hauler is properly licensed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3. Evaluate resident demand for optional recycling amenity</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4. Consider voluntary certification programs if applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="24" t="inlineStr">
+        <is>
+          <t>Generated by: WasteWise Regulatory Compliance Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="24" t="inlineStr">
+        <is>
+          <t>For detailed findings, see: Properties/Bella_Mirage/Regulatory_Compliance_Summary.md</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>